--- a/jar/logins.xlsx
+++ b/jar/logins.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beeharryv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\uhv_COSC6342_iSMS\jar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA33C4-2CE7-483C-B086-1586F6CEE0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57816B50-0CA4-4640-909D-0E6F1D72D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12810" windowHeight="15300" activeTab="3" xr2:uid="{49577B94-F43E-4329-A970-4E9EF01A1660}"/>
+    <workbookView xWindow="-31695" yWindow="3120" windowWidth="17340" windowHeight="13545" activeTab="1" xr2:uid="{49577B94-F43E-4329-A970-4E9EF01A1660}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="student" sheetId="2" r:id="rId2"/>
     <sheet name="professor" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="courses" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>admin</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Biology</t>
+  </si>
+  <si>
+    <t>AC1000</t>
+  </si>
+  <si>
+    <t>Accounts</t>
   </si>
 </sst>
 </file>
@@ -554,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632FB16A-5D27-4464-821D-5660266D1E4F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD5D270-BDC8-4695-BF26-FA21CA20B601}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +764,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
